--- a/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
+++ b/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
@@ -19,9 +19,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="109">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段00220005地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段00220000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段00490000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區月眉段21590000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區月眉段05800000地號</t>
+  </si>
+  <si>
+    <t>局雄市杉林區上平段02900000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05290000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05270000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05260000地號</t>
+  </si>
+  <si>
+    <t>20000分之155</t>
+  </si>
+  <si>
+    <t>20000分之3</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>11分之1</t>
+  </si>
+  <si>
+    <t>44分之1</t>
+  </si>
+  <si>
+    <t>110分之1</t>
+  </si>
+  <si>
+    <t>林郁方</t>
+  </si>
+  <si>
+    <t>黃昱華</t>
+  </si>
+  <si>
+    <t>97年03月26日</t>
+  </si>
+  <si>
+    <t>84年07月13日</t>
+  </si>
+  <si>
+    <t>90年06月21日</t>
+  </si>
+  <si>
+    <t>90年06月</t>
+  </si>
+  <si>
+    <t>90年06月21曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>14345000(與下列七筆為同一交易）</t>
+  </si>
+  <si>
+    <t>與第一筆為同一交易</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>tmp4c8a1</t>
+  </si>
+  <si>
+    <t>建物標.示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,100 +177,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中正區永昌段六小段 0022-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 0022-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段0049 - 0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區月眉段2159 - 0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區月眉段0580-0000 地號</t>
-  </si>
-  <si>
-    <t>局雄市杉林區上平段0290-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0529 - 0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0527-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0526-0000 地號</t>
-  </si>
-  <si>
-    <t>20000分之 155</t>
-  </si>
-  <si>
-    <t>20000分之 3</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>11分之1</t>
-  </si>
-  <si>
-    <t>44分之1</t>
-  </si>
-  <si>
-    <t>110分之1</t>
-  </si>
-  <si>
-    <t>林郁方</t>
-  </si>
-  <si>
-    <t>黃昱華</t>
-  </si>
-  <si>
-    <t>97年03月 26日</t>
-  </si>
-  <si>
-    <t>84年07月 13日</t>
-  </si>
-  <si>
-    <t>90年06月 21日</t>
-  </si>
-  <si>
-    <t>90年06月</t>
-  </si>
-  <si>
-    <t>90年06月 21曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>14，345，000(與 下列七筆為同 一交易）</t>
-  </si>
-  <si>
-    <t>與第一筆為同 一交易</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標.示</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 01214-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 01193-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段一小段 01360-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段 00000-000 建號</t>
+    <t>臺北市中正區永昌段六小段01214000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段一小段01360000建號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段00000000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -147,16 +198,13 @@
     <t>全部</t>
   </si>
   <si>
-    <t>14，345，000((與 下列三筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>與第一筆為同一 交易</t>
-  </si>
-  <si>
-    <t>(超過五年，地 址：上平村山仙 路）</t>
-  </si>
-  <si>
-    <t>廠牌型_號</t>
+    <t>14345000((與下列三筆為同一交易）</t>
+  </si>
+  <si>
+    <t>(超過五年地址：上平村山仙路）</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
   </si>
   <si>
     <t>汽缸容量</t>
@@ -165,10 +213,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>國瑞 TOYOTA CAMRY</t>
-  </si>
-  <si>
-    <t>100 年 04 月01曰</t>
+    <t>國瑞TOYOTACAMRY</t>
+  </si>
+  <si>
+    <t>100年04月01曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -186,16 +234,16 @@
     <t>台北金南郵局（第91支）</t>
   </si>
   <si>
-    <t>台北東門郵局（台北1支 局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行台北分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行金華分 行</t>
+    <t>台北東門郵局（台北1支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行金華分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -213,10 +261,10 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>8，077，460</t>
-  </si>
-  <si>
-    <t>4，500，000</t>
+    <t>8077460</t>
+  </si>
+  <si>
+    <t>4500000</t>
   </si>
   <si>
     <t>保險公.司</t>
@@ -240,22 +288,22 @@
     <t>安泰喬祿還本終身壽險</t>
   </si>
   <si>
-    <t>國泰人壽利率變動型年金甲 型</t>
+    <t>國泰人壽利率變動型年金甲型</t>
   </si>
   <si>
     <t>增額終身壽險</t>
   </si>
   <si>
-    <t>保險期間：91.03.20〜 97.03.20，保費繳納方式：年 繳保費：118,404，終身保障’ 現金價額:680,081元</t>
-  </si>
-  <si>
-    <t>保險期間：94.03.21〜 104.03.21，保費繳納方式: 定期存款：1,000，000，期滿 領回，價額:1,150,930 7C</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜 110.01.04，保費繳納方式: 年繳保費：21，845，終身保 障’價額:138,486元</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜 110.01.04 &gt;保費繳納方式: 年繳保費：30，428，終身保 障，價額：116,819元</t>
+    <t>保險期間：91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障現金價額:680081元</t>
+  </si>
+  <si>
+    <t>保險期間：94.03.21〜104.03.21保費繳納方式:定期存款：1000000期滿領回價額:11509307C</t>
+  </si>
+  <si>
+    <t>保險期間：90.01.04〜110.01.04保費繳納方式:年繳保費：21845終身保障價額:138486元</t>
+  </si>
+  <si>
+    <t>保險期間：90.01.04〜110.01.04&gt;保費繳納方式:年繳保費：30428終身保障價額：116819元</t>
   </si>
   <si>
     <t>債務人</t>
@@ -279,25 +327,25 @@
     <t>親友借款</t>
   </si>
   <si>
-    <t>國泰世華台北分行 臺北市中正區博愛路150號</t>
-  </si>
-  <si>
-    <t>賴志威 臺北市信義區松德路</t>
-  </si>
-  <si>
-    <t>張宏瑋 臺北市内湖區大湖山莊街</t>
-  </si>
-  <si>
-    <t>1,500，000</t>
-  </si>
-  <si>
-    <t>97年05月 05日</t>
-  </si>
-  <si>
-    <t>97年05月 15曰</t>
-  </si>
-  <si>
-    <t>購買房屋自 備款</t>
+    <t>國泰世華台北分行臺北市中正區博愛路150號</t>
+  </si>
+  <si>
+    <t>賴志威臺北市信義區松德路</t>
+  </si>
+  <si>
+    <t>張宏瑋臺北市内湖區大湖山莊街</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>97年05月05日</t>
+  </si>
+  <si>
+    <t>97年05月15曰</t>
+  </si>
+  <si>
+    <t>購買房屋自備款</t>
   </si>
 </sst>
 </file>
@@ -656,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,395 +732,731 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1785</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>716</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1785</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>716</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>807.12</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>716</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>807.12</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>716</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1785</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>716</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>1785</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>716</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>807.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>716</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>807.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>716</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>716</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
         <v>22</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>1635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>716</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>716</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>685.59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>716</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>942.75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>716</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>813.08</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
+        <v>716</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>773.31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>716</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="2">
         <v>30</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1090,25 +1474,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1116,25 +1500,25 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>152.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1142,25 +1526,25 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1168,25 +1552,25 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1194,25 +1578,25 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>4.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1220,25 +1604,25 @@
         <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>116.91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1246,25 +1630,25 @@
         <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1282,22 +1666,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1305,19 +1689,19 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>620000</v>
@@ -1338,19 +1722,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1358,16 +1742,16 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>466572</v>
@@ -1378,16 +1762,16 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>798110</v>
@@ -1398,19 +1782,19 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1418,16 +1802,16 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>720684</v>
@@ -1438,16 +1822,16 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>1375448</v>
@@ -1458,16 +1842,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <v>1264</v>
@@ -1478,19 +1862,19 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1508,16 +1892,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1525,16 +1909,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1542,16 +1926,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1559,16 +1943,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1576,16 +1960,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1603,22 +1987,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1626,22 +2010,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>5589301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1649,22 +2033,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1672,22 +2056,22 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>1600000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
+++ b/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -96,12 +96,12 @@
     <t>高雄市杉林區上平段05260000地號</t>
   </si>
   <si>
+    <t>20000分之155</t>
+  </si>
+  <si>
     <t>20000分之3</t>
   </si>
   <si>
-    <t>20000分之155</t>
-  </si>
-  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -141,6 +141,9 @@
     <t>繼承</t>
   </si>
   <si>
+    <t>14345000(與下列七筆為同一交易）</t>
+  </si>
+  <si>
     <t>與第一筆為同一交易</t>
   </si>
   <si>
@@ -162,25 +165,25 @@
     <t>臺北市中正區永昌段六小段01214000建號</t>
   </si>
   <si>
+    <t>臺北市中正區永昌段六小段01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段一小段01360000建號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段00000000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
+    <t>174分之3</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>14345000((與下列三筆為同一交易）</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段01193000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段一小段01360000建號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段00000000建號</t>
-  </si>
-  <si>
-    <t>174分之3</t>
-  </si>
-  <si>
-    <t>全部</t>
   </si>
   <si>
     <t>(超過五年地址：上平村山仙路）</t>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +699,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -720,13 +723,13 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -735,27 +738,27 @@
         <v>716</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.26775</v>
+        <v>13.83375</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="2">
-        <v>807.12</v>
+        <v>1785</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -770,16 +773,16 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -788,21 +791,21 @@
         <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q3" s="2">
-        <v>6.25518</v>
+        <v>0.26775</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -823,16 +826,16 @@
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -841,33 +844,33 @@
         <v>716</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.121068</v>
+        <v>6.25518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>1785</v>
+        <v>807.12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
@@ -876,16 +879,16 @@
         <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -894,21 +897,21 @@
         <v>716</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q5" s="2">
-        <v>13.83375</v>
+        <v>0.121068</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -929,16 +932,16 @@
         <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -947,27 +950,27 @@
         <v>716</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.26775</v>
+        <v>13.83375</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>807.12</v>
+        <v>1785</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -982,16 +985,16 @@
         <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
@@ -1000,21 +1003,21 @@
         <v>716</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q7" s="2">
-        <v>6.25518</v>
+        <v>0.26775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1035,16 +1038,16 @@
         <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
@@ -1053,36 +1056,36 @@
         <v>716</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.121068</v>
+        <v>6.25518</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>148</v>
+        <v>807.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>38</v>
@@ -1091,13 +1094,13 @@
         <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1106,51 +1109,51 @@
         <v>716</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.25</v>
+        <v>0.00015</v>
       </c>
       <c r="Q9" s="2">
-        <v>37</v>
+        <v>0.121068</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>1635</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
@@ -1159,30 +1162,30 @@
         <v>716</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0909090909090909</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" s="2">
-        <v>148.636363636364</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>328</v>
+        <v>1635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -1194,16 +1197,16 @@
         <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>31</v>
@@ -1212,30 +1215,30 @@
         <v>716</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0227272727272727</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q11" s="2">
-        <v>7.45454545454546</v>
+        <v>148.636363636364</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>685.59</v>
+        <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -1247,16 +1250,16 @@
         <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>31</v>
@@ -1265,51 +1268,51 @@
         <v>716</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.00909090909090909</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="Q12" s="2">
-        <v>6.23263636363636</v>
+        <v>7.45454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>942.75</v>
+        <v>685.59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>31</v>
@@ -1318,51 +1321,51 @@
         <v>716</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0909090909090909</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="Q13" s="2">
-        <v>85.7045454545455</v>
+        <v>6.23263636363636</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>813.08</v>
+        <v>942.75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>31</v>
@@ -1371,30 +1374,30 @@
         <v>716</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0227272727272727</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q14" s="2">
-        <v>18.4790909090909</v>
+        <v>85.7045454545455</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>773.31</v>
+        <v>813.08</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -1406,16 +1409,16 @@
         <v>39</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>31</v>
@@ -1424,15 +1427,68 @@
         <v>716</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="2">
+        <v>29</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>18.4790909090909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>773.31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O15" s="2">
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>716</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="2">
         <v>30</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P16" s="2">
         <v>0.0909090909090909</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q16" s="2">
         <v>70.3009090909091</v>
       </c>
     </row>
@@ -1443,47 +1499,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
         <v>152.52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1495,24 +1578,51 @@
         <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>716</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>76.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>152.52</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -1521,21 +1631,48 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>716</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0775862068965517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>4.5</v>
+        <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1547,27 +1684,54 @@
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>716</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>76.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
-        <v>116.91</v>
+        <v>4.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>38</v>
@@ -1575,31 +1739,138 @@
       <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>716</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2">
+        <v>38</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.0775862068965517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>116.91</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>716</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="2">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>116.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
         <v>138</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>54</v>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>716</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2">
+        <v>40</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>12.5454545454545</v>
       </c>
     </row>
   </sheetData>
@@ -1609,15 +1880,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
@@ -1626,12 +1897,35 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="1">
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
         <v>620000</v>
       </c>
     </row>
@@ -1642,7 +1936,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1650,13 +1944,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1667,122 +1961,142 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>798110</v>
+        <v>466572</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
+      <c r="F3" s="2">
+        <v>798110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2">
-        <v>720684</v>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>1375448</v>
+        <v>720684</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>1264</v>
+        <v>1375448</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1800,41 +2114,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1848,19 +2162,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1878,13 +2209,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>5589301</v>
@@ -1893,41 +2224,41 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
+      <c r="F2" s="2">
+        <v>5589301</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1935,11 +2266,34 @@
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="2">
-        <v>1600000</v>
+      <c r="F3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
+++ b/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>(超過五年地址：上平村山仙路）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞TOYOTACAMRY</t>
@@ -1880,38 +1883,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1">
-        <v>620000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1920,13 +1944,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>620000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>716</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1944,13 +1989,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1964,13 +2009,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1984,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2004,19 +2049,19 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2024,13 +2069,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2044,13 +2089,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2064,13 +2109,13 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -2084,19 +2129,19 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2114,16 +2159,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2131,16 +2176,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2148,16 +2193,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2165,16 +2210,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2182,16 +2227,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2209,13 +2254,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>5589301</v>
@@ -2224,7 +2269,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2232,16 +2277,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2">
         <v>5589301</v>
@@ -2255,22 +2300,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2278,22 +2323,22 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2">
         <v>1600000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
+++ b/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -189,6 +189,9 @@
     <t>(超過五年地址：上平村山仙路）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
   </si>
   <si>
     <t>100年04月01曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北金南郵局（第91支）</t>
@@ -1584,7 +1590,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>44</v>
@@ -1637,7 +1643,7 @@
         <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>44</v>
@@ -1690,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>44</v>
@@ -1743,7 +1749,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>44</v>
@@ -1796,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>44</v>
@@ -1849,7 +1855,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>44</v>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1935,7 +1941,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1944,7 +1950,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -1953,7 +1959,7 @@
         <v>620000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>44</v>
@@ -1989,13 +1995,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -2009,13 +2015,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -2029,13 +2035,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2049,19 +2055,19 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2069,13 +2075,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2089,13 +2095,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2109,13 +2115,13 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -2129,19 +2135,19 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2159,16 +2165,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2176,16 +2182,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2193,16 +2199,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2210,16 +2216,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2227,16 +2233,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2254,13 +2260,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>5589301</v>
@@ -2269,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2277,16 +2283,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2">
         <v>5589301</v>
@@ -2300,22 +2306,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2323,22 +2329,22 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2">
         <v>1600000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
+++ b/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -204,40 +204,46 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北金南郵局（第91支）</t>
   </si>
   <si>
+    <t>台北東門郵局（台北1支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行金華分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存政</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北東門郵局（台北1支局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行台北分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行金華分行</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存政</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>8077460</t>
-  </si>
-  <si>
-    <t>4500000</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1987,13 +1993,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -2004,24 +2010,45 @@
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1">
-        <v>466572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -2029,19 +2056,40 @@
       <c r="F2" s="2">
         <v>466572</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>716</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2049,39 +2097,81 @@
       <c r="F3" s="2">
         <v>798110</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>716</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="2">
+        <v>8077460</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>716</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2089,19 +2179,40 @@
       <c r="F5" s="2">
         <v>720684</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>716</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2109,19 +2220,40 @@
       <c r="F6" s="2">
         <v>1375448</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>716</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -2129,25 +2261,67 @@
       <c r="F7" s="2">
         <v>1264</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>716</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
+      <c r="F8" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
+        <v>716</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2165,16 +2339,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2182,16 +2356,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2199,16 +2373,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2216,16 +2390,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2233,16 +2407,16 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2260,13 +2434,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>5589301</v>
@@ -2275,7 +2449,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2283,16 +2457,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2">
         <v>5589301</v>
@@ -2306,22 +2480,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2329,22 +2503,22 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="2">
         <v>1600000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
+++ b/legislator/property/output/normal/林郁方_2013-12-26_財產申報表_tmp4c8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -246,58 +246,58 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>安泰喬祿還本終身壽險</t>
   </si>
   <si>
-    <t>保險期間：91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障現金價額:680081元</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>國泰人壽利率變動型年金甲型</t>
   </si>
   <si>
     <t>增額終身壽險</t>
   </si>
   <si>
-    <t>保險期間：94.03.21〜104.03.21保費繳納方式:定期存款：1000000期滿領回價額:11509307C</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜110.01.04保費繳納方式:年繳保費：21845終身保障價額:138486元</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜110.01.04&gt;保費繳納方式:年繳保費：30428終身保障價額：116819元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>親友借款</t>
+  </si>
+  <si>
     <t>國泰世華台北分行臺北市中正區博愛路150號</t>
   </si>
   <si>
-    <t>親友借款</t>
+    <t>賴志威臺北市信義區松德路</t>
+  </si>
+  <si>
+    <t>張宏瑋臺北市内湖區大湖山莊街</t>
+  </si>
+  <si>
+    <t>97年05月05日</t>
+  </si>
+  <si>
+    <t>97年05月15曰</t>
   </si>
   <si>
     <t>購買房屋自備款</t>
   </si>
   <si>
-    <t>賴志威臺北市信義區松德路</t>
-  </si>
-  <si>
-    <t>張宏瑋臺北市内湖區大湖山莊街</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>97年05月05日</t>
-  </si>
-  <si>
-    <t>97年05月15曰</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2331,49 +2331,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>716</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>79</v>
@@ -2384,13 +2420,31 @@
       <c r="E3" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>716</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>80</v>
@@ -2399,15 +2453,33 @@
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2">
+        <v>716</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>80</v>
@@ -2416,7 +2488,25 @@
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2">
+        <v>716</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2426,33 +2516,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5589301</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>116</v>
       </c>
@@ -2460,65 +2571,128 @@
         <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5589301</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5589301</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>716</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
+      <c r="E3" s="2">
+        <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>716</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="2">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2">
         <v>1600000</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>92</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
+        <v>716</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
